--- a/testData/credentials.xlsx
+++ b/testData/credentials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation practice\javaSelenium\com.demo.selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation practice\javaSelenium\Orange-HRM\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0838B4C7-8DED-4ECE-8CE7-2150E00C6AC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF568531-BEA2-488A-91DA-2A8EC7189B2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>admin123</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>admin1234</t>
+    <t>Mahendra</t>
+  </si>
+  <si>
+    <t>RamCharan</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -396,15 +396,15 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
